--- a/medicine/Psychotrope/Cocktail_officiel_de_l'IBA/Cocktail_officiel_de_l'IBA.xlsx
+++ b/medicine/Psychotrope/Cocktail_officiel_de_l'IBA/Cocktail_officiel_de_l'IBA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cocktail_officiel_de_l%27IBA</t>
+          <t>Cocktail_officiel_de_l'IBA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cocktails officiels de l'IBA sont une liste de cocktails les plus connus du monde, sélectionnés par l'Association internationale des barmen (IBA) pour le concours mondial de cocktail (World Cocktail Championships - WCC) des barmen[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cocktails officiels de l'IBA sont une liste de cocktails les plus connus du monde, sélectionnés par l'Association internationale des barmen (IBA) pour le concours mondial de cocktail (World Cocktail Championships - WCC) des barmen.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cocktail_officiel_de_l%27IBA</t>
+          <t>Cocktail_officiel_de_l'IBA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au 1er janvier 2008, les cocktails officiels de l'IBA Official furent divisés en quatre catégories : cocktails apéritifs (pre dinner cocktail), cocktails digestifs (after dinner cocktail), long drink style et popular cocktail[2].
-En 2010, la liste évolue avec une section special cocktail[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 1er janvier 2008, les cocktails officiels de l'IBA Official furent divisés en quatre catégories : cocktails apéritifs (pre dinner cocktail), cocktails digestifs (after dinner cocktail), long drink style et popular cocktail.
+En 2010, la liste évolue avec une section special cocktail.
 En 2016, les cocktails officiels sont divisés en trois catégories : 
-The Unforgettables[4]
-Contemporary Classics[5]
-New Era Drinks[6].
-Les cocktails de l'IBA sont mesurés en centilitres (cl) au lieu des millilitres (ml) habituellement utilisés[7].
 The Unforgettables
 Contemporary Classics
-New Era Drinks</t>
+New Era Drinks.
+Les cocktails de l'IBA sont mesurés en centilitres (cl) au lieu des millilitres (ml) habituellement utilisés.
+</t>
         </is>
       </c>
     </row>
